--- a/outputs-HGR-r202-archive/g__Parasutterella.xlsx
+++ b/outputs-HGR-r202-archive/g__Parasutterella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,61 +869,61 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22049.fa</t>
+          <t>even_MAG-GUT24657.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09446667532315114</v>
+        <v>0.02176495490422908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6782291705621397</v>
+        <v>0.3724729079145978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004723850660205616</v>
+        <v>0.002577894522604154</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002592042775344675</v>
+        <v>0.4193228952936042</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2223210991769691</v>
+        <v>0.1838613473649647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6782291705621397</v>
+        <v>0.4193228952936042</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195(reject)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24657.fa</t>
+          <t>even_MAG-GUT25022.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02176495490422908</v>
+        <v>0.03131080129018862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3724729079145978</v>
+        <v>0.4036958565568422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002577894522604154</v>
+        <v>0.009043572524685215</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4193228952936042</v>
+        <v>0.5256627867702397</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1838613473649647</v>
+        <v>0.03028698285804432</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4193228952936042</v>
+        <v>0.5256627867702397</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -932,138 +932,138 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195(reject)</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25022.fa</t>
+          <t>even_MAG-GUT27032.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03131080129018862</v>
+        <v>0.04265373686079443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4036958565568422</v>
+        <v>0.6791202843693281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009043572524685215</v>
+        <v>0.01497412760123855</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5256627867702397</v>
+        <v>0.09735751844796769</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03028698285804432</v>
+        <v>0.1658943327206713</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5256627867702397</v>
+        <v>0.6791202843693281</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27032.fa</t>
+          <t>even_MAG-GUT29557.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04265373686079443</v>
+        <v>0.02884665243735976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6791202843693281</v>
+        <v>0.4432918209058826</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01497412760123855</v>
+        <v>0.01231328628598836</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09735751844796769</v>
+        <v>0.4577908729786713</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1658943327206713</v>
+        <v>0.05775736739209785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6791202843693281</v>
+        <v>0.4577908729786713</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195(reject)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29557.fa</t>
+          <t>even_MAG-GUT29963.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02884665243735976</v>
+        <v>0.09535852204279749</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4432918209058826</v>
+        <v>0.6723377515289447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01231328628598836</v>
+        <v>0.01872641688444672</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4577908729786713</v>
+        <v>0.009235226816744203</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05775736739209785</v>
+        <v>0.2043420827270669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4577908729786713</v>
+        <v>0.6723377515289447</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195(reject)</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29963.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09535852204279749</v>
+        <v>0.1397950139512742</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6723377515289447</v>
+        <v>0.7075427970528797</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01872641688444672</v>
+        <v>0.001707325378328201</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009235226816744203</v>
+        <v>0.03342154491571368</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2043420827270669</v>
+        <v>0.1175333187018043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6723377515289447</v>
+        <v>0.7075427970528797</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1079,26 +1079,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33566.fa</t>
+          <t>even_MAG-GUT35394.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1397950139512742</v>
+        <v>0.03090628618490303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7075427970528797</v>
+        <v>0.7148441467978899</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001707325378328201</v>
+        <v>0.003090024677469219</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03342154491571368</v>
+        <v>0.2164947660445212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1175333187018043</v>
+        <v>0.03466477629521666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7075427970528797</v>
+        <v>0.7148441467978899</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1114,26 +1114,26 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35394.fa</t>
+          <t>even_MAG-GUT35641.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03090628618490303</v>
+        <v>0.1122967141319596</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7148441467978899</v>
+        <v>0.6987007206862639</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003090024677469219</v>
+        <v>0.01007472636978325</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2164947660445212</v>
+        <v>0.002296501494635663</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03466477629521666</v>
+        <v>0.1766313373173576</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7148441467978899</v>
+        <v>0.6987007206862639</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1149,26 +1149,26 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35641.fa</t>
+          <t>even_MAG-GUT36218.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1122967141319596</v>
+        <v>0.08341485190399789</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6987007206862639</v>
+        <v>0.6723985800331935</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01007472636978325</v>
+        <v>0.007066320583067482</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002296501494635663</v>
+        <v>0.04596412974018451</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1766313373173576</v>
+        <v>0.1911561177395564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6987007206862639</v>
+        <v>0.6723985800331935</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1184,26 +1184,26 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36218.fa</t>
+          <t>even_MAG-GUT37389.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08341485190399789</v>
+        <v>0.05334355537850276</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6723985800331935</v>
+        <v>0.6561494160410898</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007066320583067482</v>
+        <v>0.001306025569578431</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04596412974018451</v>
+        <v>0.2457579290035331</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1911561177395564</v>
+        <v>0.04344307400729611</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6723985800331935</v>
+        <v>0.6561494160410898</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1219,96 +1219,96 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37389.fa</t>
+          <t>even_MAG-GUT38856.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05334355537850276</v>
+        <v>0.004964803857473513</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6561494160410898</v>
+        <v>0.388002328591676</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001306025569578431</v>
+        <v>0.002022932494751464</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2457579290035331</v>
+        <v>0.5208876043986801</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04344307400729611</v>
+        <v>0.08412233065741904</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6561494160410898</v>
+        <v>0.5208876043986801</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38856.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004964803857473513</v>
+        <v>0.07951397976413643</v>
       </c>
       <c r="C24" t="n">
-        <v>0.388002328591676</v>
+        <v>0.6037568978660598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002022932494751464</v>
+        <v>0.02439982786572862</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5208876043986801</v>
+        <v>0.0974066357417071</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08412233065741904</v>
+        <v>0.1949226587623682</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5208876043986801</v>
+        <v>0.6037568978660598</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39136.fa</t>
+          <t>even_MAG-GUT39174.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07951397976413643</v>
+        <v>0.04364325121670314</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6037568978660598</v>
+        <v>0.6738425044238969</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02439982786572862</v>
+        <v>0.01816040809429384</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0974066357417071</v>
+        <v>0.1876418055530164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1949226587623682</v>
+        <v>0.07671203071208969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6037568978660598</v>
+        <v>0.6738425044238969</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1324,26 +1324,26 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39174.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04364325121670314</v>
+        <v>0.05604561064962326</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6738425044238969</v>
+        <v>0.5476015630658861</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01816040809429384</v>
+        <v>0.02579838991457074</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1876418055530164</v>
+        <v>0.2469305669151011</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07671203071208969</v>
+        <v>0.1236238694548187</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6738425044238969</v>
+        <v>0.5476015630658861</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1359,26 +1359,26 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4338.fa</t>
+          <t>even_MAG-GUT47180.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.05604561064962326</v>
+        <v>0.02150342893422375</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5476015630658861</v>
+        <v>0.5755932716501407</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02579838991457074</v>
+        <v>0.00673046591337012</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2469305669151011</v>
+        <v>0.3434410636793537</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1236238694548187</v>
+        <v>0.05273176982291177</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5476015630658861</v>
+        <v>0.5755932716501407</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1394,96 +1394,96 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47180.fa</t>
+          <t>even_MAG-GUT60374.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02150342893422375</v>
+        <v>0.04195236857323593</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5755932716501407</v>
+        <v>0.4159222108717457</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00673046591337012</v>
+        <v>0.008572930324326388</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3434410636793537</v>
+        <v>0.5077165993380691</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05273176982291177</v>
+        <v>0.02583589089262279</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5755932716501407</v>
+        <v>0.5077165993380691</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60374.fa</t>
+          <t>even_MAG-GUT66915.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04195236857323593</v>
+        <v>0.04616371687444237</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4159222108717457</v>
+        <v>0.4614782425936278</v>
       </c>
       <c r="D29" t="n">
-        <v>0.008572930324326388</v>
+        <v>0.0238240184068424</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5077165993380691</v>
+        <v>0.3356503030314953</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02583589089262279</v>
+        <v>0.1328837190935921</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5077165993380691</v>
+        <v>0.4614782425936278</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66915.fa</t>
+          <t>even_MAG-GUT6753.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04616371687444237</v>
+        <v>0.08686680223953977</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4614782425936278</v>
+        <v>0.5630969004227848</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0238240184068424</v>
+        <v>0.01064269676698863</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3356503030314953</v>
+        <v>0.2308424454526669</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1328837190935921</v>
+        <v>0.1085511551180199</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4614782425936278</v>
+        <v>0.5630969004227848</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1499,26 +1499,26 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6753.fa</t>
+          <t>even_MAG-GUT73967.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08686680223953977</v>
+        <v>0.02506733227768825</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5630969004227848</v>
+        <v>0.6287755482894108</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01064269676698863</v>
+        <v>0.01264632439052492</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2308424454526669</v>
+        <v>0.2947680114508884</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1085511551180199</v>
+        <v>0.03874278359148766</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5630969004227848</v>
+        <v>0.6287755482894108</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1534,26 +1534,26 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73967.fa</t>
+          <t>even_MAG-GUT75471.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02506733227768825</v>
+        <v>0.06287523875686057</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6287755482894108</v>
+        <v>0.5875993545680113</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01264632439052492</v>
+        <v>0.03460264036608503</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2947680114508884</v>
+        <v>0.2353659667676324</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03874278359148766</v>
+        <v>0.07955679954141077</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6287755482894108</v>
+        <v>0.5875993545680113</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1569,26 +1569,26 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT75471.fa</t>
+          <t>even_MAG-GUT77563.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06287523875686057</v>
+        <v>0.06884114964557417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5875993545680113</v>
+        <v>0.6701701433524025</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03460264036608503</v>
+        <v>0.003475429544353769</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2353659667676324</v>
+        <v>0.08899226615369162</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07955679954141077</v>
+        <v>0.168521011303978</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5875993545680113</v>
+        <v>0.6701701433524025</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1604,26 +1604,26 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77563.fa</t>
+          <t>even_MAG-GUT80449.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.06884114964557417</v>
+        <v>0.04523514857753768</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6701701433524025</v>
+        <v>0.5981621089037732</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003475429544353769</v>
+        <v>0.006496167835388397</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08899226615369162</v>
+        <v>0.2811038942404472</v>
       </c>
       <c r="F34" t="n">
-        <v>0.168521011303978</v>
+        <v>0.06900268044285339</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6701701433524025</v>
+        <v>0.5981621089037732</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1639,103 +1639,68 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80449.fa</t>
+          <t>even_MAG-GUT83592.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04523514857753768</v>
+        <v>0.0004906356080338729</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5981621089037732</v>
+        <v>0.2332889732792898</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006496167835388397</v>
+        <v>6.927652621565141e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2811038942404472</v>
+        <v>0.746736472021024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06900268044285339</v>
+        <v>0.01941464256543664</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5981621089037732</v>
+        <v>0.746736472021024</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp000980495</t>
+          <t>s__Parasutterella sp900552195</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83592.fa</t>
+          <t>even_MAG-GUT84859.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004906356080338729</v>
+        <v>0.05790791838561801</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2332889732792898</v>
+        <v>0.5797914983608828</v>
       </c>
       <c r="D36" t="n">
-        <v>6.927652621565141e-05</v>
+        <v>0.001407741622252897</v>
       </c>
       <c r="E36" t="n">
-        <v>0.746736472021024</v>
+        <v>0.007109081318384816</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01941464256543664</v>
+        <v>0.3537837603128614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.746736472021024</v>
+        <v>0.5797914983608828</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>s__Parasutterella sp900552195</t>
+          <t>s__Parasutterella sp000980495</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
-        <is>
-          <t>s__Parasutterella sp900552195</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84859.fa</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.05790791838561801</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5797914983608828</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.001407741622252897</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.007109081318384816</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.3537837603128614</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.5797914983608828</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>s__Parasutterella sp000980495</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
         <is>
           <t>s__Parasutterella sp000980495</t>
         </is>
